--- a/2020/January/All Details/04.01.2020/MC Bank Statement Jan'2020.xlsx
+++ b/2020/January/All Details/04.01.2020/MC Bank Statement Jan'2020.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\04.01.2020\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD26DEF-2345-41BD-8159-0CCD178204D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="December" sheetId="7" r:id="rId1"/>
     <sheet name="CAPITAL" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -109,9 +115,6 @@
     <t>J=Molla Mobile Center</t>
   </si>
   <si>
-    <t>Bank Statement December-2019</t>
-  </si>
-  <si>
     <t>*N=Desh Mobile</t>
   </si>
   <si>
@@ -133,19 +136,25 @@
     <t>01.01.2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Hand </t>
-  </si>
-  <si>
     <t>02.01.2020</t>
   </si>
   <si>
-    <t>Date: 02.01.2020</t>
+    <t>04.01.2020</t>
+  </si>
+  <si>
+    <t>Bank Statement January 2020</t>
+  </si>
+  <si>
+    <t>Date: 04.01.2020</t>
+  </si>
+  <si>
+    <t>Hand + Jafor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1526,12 +1535,12 @@
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma 2" xfId="28"/>
-    <cellStyle name="Comma 2 2" xfId="29"/>
-    <cellStyle name="Comma 2 3" xfId="30"/>
-    <cellStyle name="Comma 3" xfId="31"/>
-    <cellStyle name="Comma 4" xfId="32"/>
-    <cellStyle name="Comma 5" xfId="33"/>
+    <cellStyle name="Comma 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Comma 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Comma 2 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 3" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 4" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 5" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Explanatory Text" xfId="34" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="35" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="36" builtinId="16" customBuiltin="1"/>
@@ -1542,15 +1551,15 @@
     <cellStyle name="Linked Cell" xfId="41" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="42" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 16" xfId="43"/>
-    <cellStyle name="Normal 18" xfId="44"/>
-    <cellStyle name="Normal 2" xfId="45"/>
-    <cellStyle name="Normal 3" xfId="46"/>
-    <cellStyle name="Normal 4" xfId="47"/>
-    <cellStyle name="Note 2" xfId="48"/>
+    <cellStyle name="Normal 16" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 18" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 4" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Note 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="Output" xfId="49" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent 2" xfId="50"/>
-    <cellStyle name="Percent 3" xfId="51"/>
+    <cellStyle name="Percent 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Percent 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
     <cellStyle name="Title" xfId="52" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="53" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="54" builtinId="11" customBuiltin="1"/>
@@ -1588,7 +1597,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1609,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1623,14 +1632,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1690,7 +1699,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1722,9 +1731,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1756,6 +1783,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1931,11 +1976,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1967,7 +2012,7 @@
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
       <c r="A3" s="60"/>
       <c r="B3" s="141" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C3" s="141"/>
       <c r="D3" s="141"/>
@@ -2022,7 +2067,7 @@
     <row r="7" spans="1:9">
       <c r="A7" s="60"/>
       <c r="B7" s="66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="64">
         <v>436000</v>
@@ -2041,7 +2086,7 @@
     <row r="8" spans="1:9">
       <c r="A8" s="60"/>
       <c r="B8" s="66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="64">
         <v>438000</v>
@@ -2059,9 +2104,15 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="60"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
+      <c r="B9" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="64">
+        <v>0</v>
+      </c>
+      <c r="D9" s="64">
+        <v>0</v>
+      </c>
       <c r="E9" s="98">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -2354,7 +2405,7 @@
         <v>2000</v>
       </c>
       <c r="F31" s="106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="60"/>
@@ -2994,14 +3045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AK222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -3126,7 +3177,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="109">
-        <v>5598035.4849999994</v>
+        <v>5229081.6599999992</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="101"/>
@@ -3166,11 +3217,11 @@
         <v>6</v>
       </c>
       <c r="B5" s="29">
-        <v>11978.93</v>
+        <v>21419.865000000002</v>
       </c>
       <c r="C5" s="82"/>
       <c r="D5" s="127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="109">
         <v>2000</v>
@@ -3214,14 +3265,14 @@
       </c>
       <c r="B6" s="29">
         <f>B4+B5</f>
-        <v>7011978.9299999997</v>
+        <v>7021419.8650000002</v>
       </c>
       <c r="C6" s="81"/>
       <c r="D6" s="105" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E6" s="110">
-        <v>200000</v>
+        <v>527000</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="101"/>
@@ -3268,7 +3319,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="40">
-        <v>1420530</v>
+        <v>1471267</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="101"/>
@@ -3308,7 +3359,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="29">
-        <v>1620</v>
+        <v>2228</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="127" t="s">
@@ -3357,10 +3408,10 @@
       <c r="B9" s="30"/>
       <c r="C9" s="20"/>
       <c r="D9" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="109">
-        <v>-210206.5549999997</v>
+        <v>-210156.79499999899</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="101"/>
@@ -3401,7 +3452,7 @@
       </c>
       <c r="B10" s="48">
         <f>B5-B8-B9</f>
-        <v>10358.93</v>
+        <v>19191.865000000002</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="127"/>
@@ -3527,7 +3578,7 @@
       </c>
       <c r="B13" s="31">
         <f>B6-B8+B11-B12-B9</f>
-        <v>7010358.9299999997</v>
+        <v>7019191.8650000002</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26" t="s">
@@ -3535,7 +3586,7 @@
       </c>
       <c r="E13" s="41">
         <f>E4+E5+E6+E7+E8-E11+E9-E10</f>
-        <v>7010358.9299999997</v>
+        <v>7019191.8650000002</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="90">
@@ -3657,7 +3708,7 @@
     </row>
     <row r="16" spans="1:37" ht="21.75" customHeight="1">
       <c r="A16" s="113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="87">
         <v>80000</v>
@@ -3704,7 +3755,7 @@
     </row>
     <row r="17" spans="1:37" ht="21.75" customHeight="1">
       <c r="A17" s="113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="87">
         <v>161928</v>
@@ -3750,7 +3801,7 @@
     </row>
     <row r="18" spans="1:37" ht="21.75" customHeight="1">
       <c r="A18" s="116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="88">
         <v>271144</v>
@@ -3760,7 +3811,7 @@
         <v>23</v>
       </c>
       <c r="E18" s="117">
-        <v>199545</v>
+        <v>285020</v>
       </c>
       <c r="G18" s="103"/>
       <c r="H18" s="102"/>
@@ -3799,7 +3850,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="89">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="C19" s="32"/>
       <c r="D19" s="35" t="s">

--- a/2020/January/All Details/04.01.2020/MC Bank Statement Jan'2020.xlsx
+++ b/2020/January/All Details/04.01.2020/MC Bank Statement Jan'2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\04.01.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD26DEF-2345-41BD-8159-0CCD178204D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAAF953-C19F-4B16-8CAF-041B59E2C79A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-210" yWindow="555" windowWidth="14310" windowHeight="9990" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="December" sheetId="7" r:id="rId1"/>
@@ -3052,7 +3052,7 @@
   <dimension ref="A1:AK222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
